--- a/source/_static/documents/excel/practice9.xlsx
+++ b/source/_static/documents/excel/practice9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCCBFDD-BC08-4131-8A85-26AC84666593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AEFA59-EC3E-489F-90DE-E532A57CE967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="2985" windowWidth="21600" windowHeight="12735" xr2:uid="{18B91CE4-F14C-4918-A59F-A7DE2AC9F63E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{18B91CE4-F14C-4918-A59F-A7DE2AC9F63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>xが被食者の数、yが捕食者の数とすると、
-上式で表される。
+    <t xml:space="preserve">xが被食者の数、yが捕食者の数とすると、dx/dt, dy/dtは下式で表される。
 本シミュレーションでは、時間tでの被食者の数をx(t),捕食者の数をy(t)とおくと、tが進むと
-tの変化量×dx/dt, tの変化量×dy/dtの分だけx(t), y(t)が変化していくと近似する。</t>
+下式の様に、tの変化量×dx/dt, tの変化量×dy/dtの分だけx(t), y(t)が変化していくと近似する。
+</t>
     <rPh sb="2" eb="5">
       <t>ヒショクシャ</t>
     </rPh>
@@ -106,52 +106,52 @@
     <rPh sb="14" eb="15">
       <t>カズ</t>
     </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウシキ</t>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="34" eb="35">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
       <t>アラワ</t>
     </rPh>
-    <rPh sb="33" eb="34">
+    <rPh sb="44" eb="45">
       <t>ホン</t>
     </rPh>
-    <rPh sb="45" eb="47">
+    <rPh sb="56" eb="58">
       <t>ジカン</t>
     </rPh>
-    <rPh sb="50" eb="53">
+    <rPh sb="61" eb="64">
       <t>ヒショクシャ</t>
     </rPh>
-    <rPh sb="54" eb="55">
+    <rPh sb="65" eb="66">
       <t>カズ</t>
     </rPh>
-    <rPh sb="58" eb="61">
+    <rPh sb="69" eb="72">
       <t>ホショクシャ</t>
     </rPh>
-    <rPh sb="62" eb="63">
+    <rPh sb="73" eb="74">
       <t>カズ</t>
     </rPh>
-    <rPh sb="75" eb="76">
+    <rPh sb="86" eb="87">
       <t>スス</t>
     </rPh>
-    <rPh sb="81" eb="83">
+    <rPh sb="100" eb="101">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
       <t>ヘンカ</t>
     </rPh>
-    <rPh sb="83" eb="84">
+    <rPh sb="113" eb="114">
       <t>リョウ</t>
     </rPh>
-    <rPh sb="94" eb="96">
+    <rPh sb="121" eb="122">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="135" eb="137">
       <t>ヘンカ</t>
     </rPh>
-    <rPh sb="96" eb="97">
-      <t>リョウ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
+    <rPh sb="142" eb="144">
       <t>キンジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -302,13 +302,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -345,9 +345,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:colOff>149542</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>50482</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2586862" cy="321370"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -365,7 +365,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4271962" y="842962"/>
+              <a:off x="4172902" y="751522"/>
               <a:ext cx="2586862" cy="321370"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -648,7 +648,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4271962" y="842962"/>
+              <a:off x="4172902" y="751522"/>
               <a:ext cx="2586862" cy="321370"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -682,6 +682,218 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑑𝑥/𝑑𝑡=𝑐_1 𝑥(1−𝑐_2 𝑦),   𝑑𝑦/𝑑𝑡=𝑐_3 𝑦(𝑐_4 𝑥−1)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50482</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1914114" cy="321370"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3E3631-E171-4694-826F-2AF030677079}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4409122" y="1673542"/>
+              <a:ext cx="1914114" cy="321370"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+0.01</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+0.01×</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑥</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑡</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="テキスト ボックス 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3E3631-E171-4694-826F-2AF030677079}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4409122" y="1673542"/>
+              <a:ext cx="1914114" cy="321370"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥(𝑡+0.01)=𝑥(𝑡)+0.01×𝑑𝑥/𝑑𝑡</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0"/>
             </a:p>
@@ -994,17 +1206,17 @@
   <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -1017,112 +1229,112 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1352,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1174,1002 +1386,1002 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0.08</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0.09</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0.11</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>0.13</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>0.16</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>0.17</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>0.18</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>0.21</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>0.22</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>0.23</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>0.24</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>0.26</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>0.27</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0.31</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>0.32</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0.33</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>0.34</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>0.35</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>0.36</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>0.37</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>0.38</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>0.39</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>0.4</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>0.41</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>0.42</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>0.43</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>0.44</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>0.45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>0.46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0.47</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>0.48</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0.49</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>0.51</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>0.52</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>0.53</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>0.54</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>0.59</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>0.6</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>0.61</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>0.62</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>0.63</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>0.64</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>0.65</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>0.66</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>0.67</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>0.68</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>0.69</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>0.7</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>0.71</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>0.72</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>0.73</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>0.74</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>0.75</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>0.76</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>0.77</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>0.78</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>0.79</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>0.8</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>0.81</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>0.82</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>0.83</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>0.84</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>0.85</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>0.86</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>0.87</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>0.88</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>0.89</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>0.9</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>0.91</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>0.92</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>0.93</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>0.94</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>0.95</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>0.96</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>0.97</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>0.98</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>0.99</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1.01</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1.02</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1.03</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1.04</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1.05</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>1.06</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>1.07</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>1.08</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1.17</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>1.18</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>1.19</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>1.2</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>1.21</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1.22</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>1.23</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>1.24</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>1.25</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>1.26</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>1.27</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>1.28</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>1.29</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>1.3</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>1.31</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>1.32</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>1.33</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>1.34</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>1.35</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1.36</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>1.37</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>1.38</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>1.39</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>1.4</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>1.41</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>1.42</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>1.43</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>1.44</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>1.45</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>1.46</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>1.47</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>1.48</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>1.49</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>1.5</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>1.51</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>1.52</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>1.53</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>1.54</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>1.55</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>1.56</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>1.57</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>1.58</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>1.59</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>1.6</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>1.61</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>1.62</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>1.63</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>1.64</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>1.65</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>1.66</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>1.67</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>1.68</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>1.69</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>1.7</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>1.71</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>1.72</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>1.73</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1.74</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>1.75</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>1.76</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1.77</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>1.78</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>1.79</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>1.8</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>1.81</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>1.82</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>1.83</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>1.84</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>1.85</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>1.86</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>1.87</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>1.88</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>1.89</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>1.9</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>1.91</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>1.92</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>1.93</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>1.94</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>1.95</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>1.96</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>1.97</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>1.98</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>1.99</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>2</v>
       </c>
